--- a/jour25.xlsx
+++ b/jour25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Cajuste', 'Balogin', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Conte', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Diop', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Silla']</t>
-  </si>
-  <si>
-    <t>['Sanches']</t>
-  </si>
-  <si>
-    <t>['Camara', 'Bamba', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Dugimont']</t>
-  </si>
-  <si>
-    <t>['Medina', 'Le_Cardinal', 'Ganiou', 'Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Aouar']</t>
-  </si>
-  <si>
-    <t>['Brassier', 'Lemarechal']</t>
+    <t>['Djiku', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Matsima']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Martin']</t>
+  </si>
+  <si>
+    <t>['Alphonse', 'Vidal', 'Hamouma', 'Roure']</t>
+  </si>
+  <si>
+    <t>['Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Magnetti', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Germain', 'Wahi']</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Delaine']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Maurer']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Payet', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Matsima']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Onaiwu', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Tchato']</t>
+    <t>['Moalida']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Dugimont', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Bercola']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Simon', 'Delort', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Bailly']</t>
+  </si>
+  <si>
+    <t>['Chavalerin', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Moffi', 'Attal', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Ben_Seguir', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Valencia', 'Valencia']</t>
   </si>
 </sst>
 </file>
@@ -552,25 +546,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -581,28 +575,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,28 +604,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,28 +633,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,25 +662,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -697,25 +691,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -726,25 +720,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -755,28 +749,28 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9">
         <v>4</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,28 +778,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,28 +807,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour25.xlsx
+++ b/jour25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Djiku', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Matsima']</t>
+    <t>['Mendy', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Ramos', 'Ramos', 'Soler', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Le_Fee']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Ribeiro', 'Martin']</t>
-  </si>
-  <si>
-    <t>['Alphonse', 'Vidal', 'Hamouma', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Magnetti', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce', 'Germain', 'Wahi']</t>
+    <t>['Ounahi']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Khazri']</t>
+  </si>
+  <si>
+    <t>['Silla']</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Angers</t>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Ajaccio</t>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OL</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Moalida']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Dugimont', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['Bercola']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Simon', 'Delort', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Bailly']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Moffi', 'Attal', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Ben_Seguir', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Valencia', 'Valencia']</t>
+    <t>['Coco']</t>
+  </si>
+  <si>
+    <t>['Cabella']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Laborde', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Dugimont', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Balde', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Tagliafico', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi', 'Dallinga', 'Healey']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -561,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -575,28 +578,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -604,28 +607,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -633,28 +636,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -662,28 +665,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,22 +700,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -720,25 +723,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -749,28 +752,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -778,28 +781,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -822,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour25.xlsx
+++ b/jour25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Mendy', 'Corduan']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Ramos', 'Ramos', 'Soler', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Lopy']</t>
-  </si>
-  <si>
-    <t>['Le_Fee']</t>
+    <t>['Sakho', 'Wahi', 'Wahi', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Elis', 'Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Vidal', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Alioui']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Versini']</t>
+  </si>
+  <si>
+    <t>['Soler']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Ounahi']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Khazri']</t>
-  </si>
-  <si>
-    <t>['Silla']</t>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Coco']</t>
-  </si>
-  <si>
-    <t>['Cabella']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Laborde', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Dugimont', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['Santamaria', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Balde', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Caqueret']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Dallinga', 'Healey']</t>
+    <t>['Laborde', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Castelletto', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'David']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Le_Goff', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Cherki', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Bain', 'Jeanvier']</t>
   </si>
 </sst>
 </file>
@@ -546,65 +549,65 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -613,77 +616,77 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -691,28 +694,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -720,7 +723,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -729,27 +732,27 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -758,27 +761,27 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -787,51 +790,51 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour25.xlsx
+++ b/jour25.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,115 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Sakho', 'Wahi', 'Wahi', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Elis', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Vidal', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Alioui']</t>
-  </si>
-  <si>
-    <t>['Medina', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Versini']</t>
-  </si>
-  <si>
-    <t>['Soler']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Khazri', 'Wahi', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Odobert', 'Odobert', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Embolo', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Lega', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Rajot', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Castelletto', 'Coco']</t>
+  </si>
+  <si>
+    <t>["N'Diaye", 'Silla']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Pepe']</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Conte', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Le_Goff', 'Silva']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Bain', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Onaiwu']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Dante']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Castelletto', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Gigot', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'David']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Le_Goff', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Cherki', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Jeanvier']</t>
+    <t>['Martin', 'Yoro', 'David']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Le_Marchand', 'Le_Marchand']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +540,396 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>44</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
         <v>45</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
